--- a/meta/9-5-1.xlsx
+++ b/meta/9-5-1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -94,50 +94,100 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t xml:space="preserve">Цель 9: Создание стойкой инфраструктуры, содействие всеохватной и устойчивой индустриализации и инновациям. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5 Активизировать научные исследования, наращивать технологический потенциал промышленных секторов во всех странах, особенно развивающихся странах, в том числе путем стимулирования к 2030 году инновационной деятельности и значительного увеличения числа работников в сфере научно-исследовательских и опытно-конструкторских работ (НИОКР) в расчете на 1 миллион человек, а также государственных и частных расходов на НИОКР </t>
-  </si>
-  <si>
-    <t>9.5.1 Доля расходов на научно-исследовательские и опытно-конструкторские работы в ВВП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Министерство финансов КР </t>
-  </si>
-  <si>
-    <t>Расходы на исследования и разработки (НИОКР) в процентах от валового внутреннего продукта (ВВП) составляют объем расходов на НИОКР, деленный на общий объем производства экономики</t>
-  </si>
-  <si>
-    <t>Исследования и экспериментальные разработки (НИОКР) включают творческую и систематическую работу, проводимую с целью увеличения объема знаний, в том числе знаний о человечестве, культуре и обществе, а также для разработки новых приложений доступных знаний. (Из Руководства Фраскати от 2015 года).
-Расходы на внутрифирменные НИОКР представляют собой сумму средств, потраченных на НИОКР, которые выполняются в пределах единицы отчетности.</t>
-  </si>
-  <si>
-    <t>Показатель является прямым измерением расходов на исследования и разработки (НИОКР)</t>
-  </si>
-  <si>
-    <t>Сумма расходов на исследования и разработки (НИОКР) делится на объем валового внутреннего продукта (ВВП), выражается в процентах</t>
-  </si>
-  <si>
-    <t>Данные НИОКР необходимо собирать с помощью обследований, которые являются дорогостоящими и не всегда охватывают все сферы деятельности.</t>
-  </si>
-  <si>
-    <t>На республиканском уровне</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Цель 16. Содействие построению миролюбивого и открытого общества в интересах устойчивого развития, обеспечение доступа к правосудию для всех и создание эффективных, подотчетных и основанных на широком участии учреждений на всех уровнях</t>
+  </si>
+  <si>
+    <t>К 2030 году обеспечить наличие у всех людей законных удостоверений личности, включая свидетельства о рождении</t>
+  </si>
+  <si>
+    <t>16.9.1 Доля детей в возрасте до пяти лет, рождение которых было зарегистрировано в гражданских органах, в разбивке по возрасту</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет Кыргызской Республики (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32-46-55</t>
+  </si>
+  <si>
+    <t>Доля детей в возрасте до пяти лет, рождение которых было зарегистрировано в гражданских органах</t>
+  </si>
+  <si>
+    <t>Регистрация рождения ребенка – первый шаг в обеспечении их признания законом, защите их прав и обеспечении того, чтобы любое нарушение этих прав не оставалось незамеченным.
+Детям без официальных документов, удостоверяющих личность, может быть отказано в медицинском обслуживании или образовании. Позже в жизни отсутствие таких документов может означать, что ребенок может вступать в брак, присутствовать на рынке труда и быть призванным в вооруженные силы до достижения совершеннолетия. В зрелом возрасте свидетельство о рождении может потребоваться при получении социального обеспечения или работы в официальном секторе, при покупке или подтверждении прав наследования, голосовании и получении паспорта.
+Права детей на имя и гражданство закреплено в Конвенции о правах ребенка (КПР) в статье 7.</t>
+  </si>
+  <si>
+    <t>Источник 1: Кластерное обследование по многим показателям (MICS).
+ MICS проведен в Кыргызстане в 2018 и 2014г. 
+Источник 2: Государственная регистрационная служба</t>
+  </si>
+  <si>
+    <t>Источник 1: Сбор данных в MICS осуществляется посредством Вопросника о детях в возрасте до 5 лет для опроса матерей (или лиц, осуществляющих уход) обо всех детях в возрасте до 5 лет, проживающих в домохозяйстве по модулю «Регистрация рождения».  Кластерное обследование по многим показателям (КОМП) проведен в Кыргызстане в 2018 и 2014г.   В опросах MICS используется персональное интервью с использованием компьютеров (ComputerAssisted Personal Interview, CAPI).</t>
+  </si>
+  <si>
+    <t>Число детей в возрасте до пяти лет, чье рождение отмечено как зарегистрированное в соответствующих национальных органах, разделенное на общее число детей до 5 лет в населении, умноженное на 100.</t>
+  </si>
+  <si>
+    <t>Пол, возраст, доход, место жительства, географическое расположение</t>
+  </si>
+  <si>
+    <t>В настоящее время национальные и сопоставимые данные доступны для примерно 167 стран с низким, средним и высоким уровнями дохода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,34 +252,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -540,7 +612,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -554,24 +626,24 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,33 +656,41 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -618,28 +698,26 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,14 +730,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -668,25 +748,25 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -698,28 +778,30 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
